--- a/Haladás.xlsx
+++ b/Haladás.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Tevékenység</t>
   </si>
@@ -70,6 +70,30 @@
   </si>
   <si>
     <t>Projekt ötletek összegyűjtése</t>
+  </si>
+  <si>
+    <t>Addresses tábla szerkesztése</t>
+  </si>
+  <si>
+    <t>Eljárások módosítása, fölöslegesek törlése</t>
+  </si>
+  <si>
+    <t>Jobshoz tartozó eljárások készítése</t>
+  </si>
+  <si>
+    <t>Adatbázisba logikai törlés bevezetése</t>
+  </si>
+  <si>
+    <t>Images tábla elfogadás mezővel bővítése</t>
+  </si>
+  <si>
+    <t>Eljárások módosítása a logikai törléshez</t>
+  </si>
+  <si>
+    <t>Eljárások módosítása az elfogadáshoz</t>
+  </si>
+  <si>
+    <t>Új eljárások készítése az Images táblához</t>
   </si>
 </sst>
 </file>
@@ -388,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C22"/>
+  <dimension ref="B2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +573,6 @@
         <v>11</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" ref="C20:C21" ca="1" si="0">TODAY()</f>
         <v>44931</v>
       </c>
     </row>
@@ -558,7 +581,6 @@
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" ca="1" si="0"/>
         <v>44931</v>
       </c>
     </row>
@@ -567,8 +589,71 @@
         <v>13</v>
       </c>
       <c r="C22" s="1">
-        <f ca="1">TODAY()</f>
         <v>44931</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>44935</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>44936</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="1">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>44938</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="1">
+        <v>44938</v>
       </c>
     </row>
   </sheetData>
